--- a/Test_Data/TEST_PLAN_HPEasyshell.xlsx
+++ b/Test_Data/TEST_PLAN_HPEasyshell.xlsx
@@ -5,24 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\Funtion_HPEasyshell_test\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59CF081-BC87-49B2-8E46-FEB5C969D017}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54AE941-9D48-4145-B36C-E0A1E558A0C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35775" yWindow="3450" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="uut" sheetId="2" r:id="rId2"/>
     <sheet name="scripts" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts!$C$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="143">
   <si>
     <t>ITEM</t>
   </si>
@@ -265,13 +268,199 @@
   </si>
   <si>
     <t>Project</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Case Name</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>01.Application</t>
+  </si>
+  <si>
+    <t>01.Verify Application can be Created by Easy Shell Application Settings</t>
+  </si>
+  <si>
+    <t>02.Verify Application can be Edited by Easy Shell Application Settings</t>
+  </si>
+  <si>
+    <t>03.Verify Application can be Launched by Easy Shell Application Settings</t>
+  </si>
+  <si>
+    <t>07.Verify Arguments setting in Application</t>
+  </si>
+  <si>
+    <t>06.Verify Administrator Only works in Application</t>
+  </si>
+  <si>
+    <t>09.Verify Select Application to Auto Launch can work</t>
+  </si>
+  <si>
+    <t>04.Verify Application can be Deleted by Easy Shell Application Settings</t>
+  </si>
+  <si>
+    <t>12.Verify Application is hidden from the user if the application directory cannot be found on HP Easy Shell’s startup</t>
+  </si>
+  <si>
+    <t>08.Verify Delay Launch setting in Application</t>
+  </si>
+  <si>
+    <t>05.Verify Persistent setting in Application</t>
+  </si>
+  <si>
+    <t>02.Verify Citrix ICA Connection can be Edited successfully</t>
+  </si>
+  <si>
+    <t>02.Connections-&gt;Citrix</t>
+  </si>
+  <si>
+    <t>01.Verify Citrix ICA Connection can be Created successfully</t>
+  </si>
+  <si>
+    <t>04.Verify Citrix ICA Connection can be Deleted successfully</t>
+  </si>
+  <si>
+    <t>01.Verify Remote Desktop Connection can be Created successfully</t>
+  </si>
+  <si>
+    <t>02.Connections-&gt;RDP</t>
+  </si>
+  <si>
+    <t>02.Verify Remote Desktop Connection can be Edited successfully</t>
+  </si>
+  <si>
+    <t>03.Verify Remote Desktop Connection can be Launched successfully</t>
+  </si>
+  <si>
+    <t>04.Verify Remote Desktop Connection can be Deleted successfully</t>
+  </si>
+  <si>
+    <t>01.Verify StoreFront Connection can be Created successfully</t>
+  </si>
+  <si>
+    <t>02.Connections-&gt;StoreFront</t>
+  </si>
+  <si>
+    <t>02.Verify StoreFront Connection can be Edited successfully</t>
+  </si>
+  <si>
+    <t>04.Verify StoreFront Connection can be Deleted successfully</t>
+  </si>
+  <si>
+    <t>01.Verify VMware View Connection can be Created successfully</t>
+  </si>
+  <si>
+    <t>02.Connections-&gt;Vmware View</t>
+  </si>
+  <si>
+    <t>04.Verify VMware View Connection can be Deleted successfully</t>
+  </si>
+  <si>
+    <t>02.Verify VMware View Connection can be Edited successfully</t>
+  </si>
+  <si>
+    <t>01.Verify Shell UI interface – Browser View works well</t>
+  </si>
+  <si>
+    <t>04.Websites-&gt;Common</t>
+  </si>
+  <si>
+    <t>06.Verify Website can be Launched successfully</t>
+  </si>
+  <si>
+    <t>04.Verify Website can be Created successfully</t>
+  </si>
+  <si>
+    <t>05.Verify Website can be Edited successfully</t>
+  </si>
+  <si>
+    <t>05.Verify Website can be Deleted successfully</t>
+  </si>
+  <si>
+    <t>02.Verify Embed IE works well</t>
+  </si>
+  <si>
+    <t>04.Verify Easy Shell Custom Background can be setted</t>
+  </si>
+  <si>
+    <t>03.Settings</t>
+  </si>
+  <si>
+    <t>09.Verify Registry can be exported and imported by UI</t>
+  </si>
+  <si>
+    <t>06.Others</t>
+  </si>
+  <si>
+    <t>11.Verify the function of Exit button</t>
+  </si>
+  <si>
+    <t>03.Verify Kiosk mode works well with Admin</t>
+  </si>
+  <si>
+    <t>04.Verify Kiosk mode works well with new user</t>
+  </si>
+  <si>
+    <t>02.Verify Kiosk mode works well</t>
+  </si>
+  <si>
+    <t>01.Sound icon can be displayed on Notification bar in Read-only mode</t>
+  </si>
+  <si>
+    <t>05.Task SwitcherBar-&gt;02.Sound</t>
+  </si>
+  <si>
+    <t>02.Verify User can modify Sound settings by click Sound icon on Notification bar</t>
+  </si>
+  <si>
+    <t>03.Verify User can modify Sound settings by Keyboard</t>
+  </si>
+  <si>
+    <t>01.Verify Task Switcher works well</t>
+  </si>
+  <si>
+    <t>05.Task SwitcherBar</t>
+  </si>
+  <si>
+    <t>02.Verify task switcher bar can display permanently</t>
+  </si>
+  <si>
+    <t>#############display time on task switcher</t>
+  </si>
+  <si>
+    <t>01.Wi-Fi icon can be displayed on Notification bar in Read-only mode</t>
+  </si>
+  <si>
+    <t>05.Task SwitcherBar-&gt;03.WiFi</t>
+  </si>
+  <si>
+    <t>02.Verify User can modify Wi-Fi settings by click wireless configuration icon in User settings</t>
+  </si>
+  <si>
+    <t>03.Verify User can modify Wi-Fi settings by click wireless configuration icon on Notification bar</t>
+  </si>
+  <si>
+    <t>06.Verify wireless connection with WPA Personal TKIP in Easy Shell Kiosk Mode</t>
+  </si>
+  <si>
+    <t>09.Verify connecting to a hidden SSID wireless network in Easy Shell Kiosk Mode</t>
+  </si>
+  <si>
+    <t>05.Verify integrated tools can be launched successfully in Settings</t>
+  </si>
+  <si>
+    <t>01.Verify Easy Shell configuration can be launched successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +491,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +511,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -344,7 +547,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,6 +575,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -839,21 +1054,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -863,19 +1081,38 @@
       <c r="C1" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -885,19 +1122,37 @@
       <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1">
+      <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -907,19 +1162,37 @@
       <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1">
+      <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -929,19 +1202,37 @@
       <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1">
+      <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -951,19 +1242,37 @@
       <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1">
+      <c r="A10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -973,19 +1282,37 @@
       <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1">
+      <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
@@ -995,19 +1322,37 @@
       <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1">
+      <c r="A14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1017,19 +1362,37 @@
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="13" customFormat="1">
+      <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
@@ -1039,19 +1402,37 @@
       <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1">
-      <c r="A18" s="5" t="s">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="13" customFormat="1">
+      <c r="A18" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1061,19 +1442,37 @@
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="13" customFormat="1">
+      <c r="A20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1083,19 +1482,37 @@
       <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1">
-      <c r="A22" s="5" t="s">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="13" customFormat="1">
+      <c r="A22" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1">
+      <c r="B22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="5" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -1105,19 +1522,37 @@
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="13" customFormat="1">
+      <c r="A24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -1127,19 +1562,37 @@
       <c r="C25" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="13" customFormat="1">
+      <c r="A26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="B26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -1149,19 +1602,37 @@
       <c r="C27" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="13" customFormat="1">
+      <c r="A28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -1171,19 +1642,37 @@
       <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="13" customFormat="1">
+      <c r="A30" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -1193,19 +1682,37 @@
       <c r="C31" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="13" customFormat="1">
+      <c r="A32" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="B32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -1215,19 +1722,31 @@
       <c r="C33" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="13" customFormat="1">
+      <c r="A34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="B34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -1237,19 +1756,31 @@
       <c r="C35" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="13" customFormat="1">
+      <c r="A36" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="B36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="13">
+        <v>2</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
         <v>60</v>
       </c>
@@ -1259,19 +1790,31 @@
       <c r="C37" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="13" customFormat="1">
+      <c r="A38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="B38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
@@ -1281,19 +1824,31 @@
       <c r="C39" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="13" customFormat="1">
+      <c r="A40" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="B40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
         <v>64</v>
       </c>
@@ -1303,20 +1858,35 @@
       <c r="C41" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="7" t="s">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="13" customFormat="1">
+      <c r="A42" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="7" t="s">
+      <c r="B42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="13">
+        <v>2</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1325,20 +1895,38 @@
       <c r="C43" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="7" t="s">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="13" customFormat="1">
+      <c r="A44" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="7" t="s">
+      <c r="C44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="13">
+        <v>3</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -1347,19 +1935,37 @@
       <c r="C45" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="7" t="s">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="13" customFormat="1">
+      <c r="A46" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="5" customFormat="1">
+      <c r="B46" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="13">
+        <v>3</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="5" customFormat="1">
       <c r="A47" s="7" t="s">
         <v>77</v>
       </c>
@@ -1369,19 +1975,37 @@
       <c r="C47" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="7" t="s">
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="13" customFormat="1">
+      <c r="A48" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="B48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="13">
+        <v>2</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
@@ -1391,19 +2015,37 @@
       <c r="C49" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="7" t="s">
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="13" customFormat="1">
+      <c r="A50" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="5" customFormat="1">
+      <c r="B50" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="5" customFormat="1">
       <c r="A51" s="7" t="s">
         <v>42</v>
       </c>
@@ -1413,19 +2055,37 @@
       <c r="C51" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" s="5" customFormat="1">
-      <c r="A52" s="7" t="s">
+      <c r="D51" s="5">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="13" customFormat="1">
+      <c r="A52" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="5" customFormat="1">
+      <c r="B52" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="13">
+        <v>2</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="5" customFormat="1">
       <c r="A53" s="7" t="s">
         <v>79</v>
       </c>
@@ -1435,19 +2095,37 @@
       <c r="C53" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="5" t="s">
+      <c r="D53" s="5">
+        <v>2</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="13" customFormat="1">
+      <c r="A54" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="13">
+        <v>2</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
         <v>71</v>
       </c>
@@ -1457,19 +2135,37 @@
       <c r="C55" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="5" t="s">
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="13" customFormat="1">
+      <c r="A56" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="13">
+        <v>2</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
         <v>73</v>
       </c>
@@ -1479,19 +2175,38 @@
       <c r="C57" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="13" customFormat="1">
+      <c r="A58" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>22</v>
+      <c r="C58" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="13">
+        <v>2</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:F1" xr:uid="{B9980AA0-70EF-4AA7-A8CE-FF1AE167A53C}"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B58" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Y,N"</formula1>
